--- a/biology/Botanique/May_Queen_(rose)/May_Queen_(rose).xlsx
+++ b/biology/Botanique/May_Queen_(rose)/May_Queen_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'May Queen' (ce qui signifie « reine de mai » en anglais) est un cultivar de rosier grimpant obtenu en 1898 par le Dr Van Fleet aux États-Unis et introduit par Conard &amp; Jones Co.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'May Queen' est un rosier grimpant obtenu par croisement de Rosa wichuraiana et de 'Madame de Graw'. Il est très vigoureux et atteint facilement 4,55 m et jusqu'à 9,15 m de hauteur s'il est palissé, et 3,05 m  de largeur. Son feuillage dense est vert foncé brillant[1].
-Les petites fleurs tétraploïdes de 'May Queen', en coupes arrondies[2], très parfumées aux senteurs de pomme[3], sont d'un rose délicat et portent 26 à 40 pétales. Non remontant, ce rosier fleurit une fois très abondamment à la fin du printemps ou au début de l'été, dans un déferlement de couleurs.  
-Sa zone de rusticité est de 4b à 9b. Il est très résistant aux maladies[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'May Queen' est un rosier grimpant obtenu par croisement de Rosa wichuraiana et de 'Madame de Graw'. Il est très vigoureux et atteint facilement 4,55 m et jusqu'à 9,15 m de hauteur s'il est palissé, et 3,05 m  de largeur. Son feuillage dense est vert foncé brillant.
+Les petites fleurs tétraploïdes de 'May Queen', en coupes arrondies, très parfumées aux senteurs de pomme, sont d'un rose délicat et portent 26 à 40 pétales. Non remontant, ce rosier fleurit une fois très abondamment à la fin du printemps ou au début de l'été, dans un déferlement de couleurs.  
+Sa zone de rusticité est de 4b à 9b. Il est très résistant aux maladies.
 </t>
         </is>
       </c>
